--- a/data/trans_camb/P25_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,56</t>
+          <t>-6,34; 2,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 6,09</t>
+          <t>-4,39; 4,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,32</t>
+          <t>-3,53; 6,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -0,63</t>
+          <t>-5,99; 3,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,15</t>
+          <t>-4,95; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 2,41</t>
+          <t>-9,27; -0,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; -0,03</t>
+          <t>-7,04; 2,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,67</t>
+          <t>-7,1; 3,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,14</t>
+          <t>-5,61; 4,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 4,09</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; -0,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 3,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 3,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 2,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 2,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,03%</t>
+          <t>-20,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-9,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-7,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-2,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-3,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-2,8%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 21,33</t>
+          <t>-28,19; 15,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 35,91</t>
+          <t>-18,9; 28,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 44,32</t>
+          <t>-15,8; 37,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,85; -3,22</t>
+          <t>-24,03; 20,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 19,77</t>
+          <t>-20,81; 17,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 11,33</t>
+          <t>-36,0; -3,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 0,82</t>
+          <t>-26,83; 11,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 18,92</t>
+          <t>-27,39; 15,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 15,19</t>
+          <t>-22,29; 23,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,62; 20,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,88; -0,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 15,51</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-16,12; 17,71</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 14,13</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,68; 13,88</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,38</t>
+          <t>-4,15; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,64</t>
+          <t>-3,04; 5,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 10,92</t>
+          <t>0,0; 9,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 2,36</t>
+          <t>-4,66; 8,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,46</t>
+          <t>-5,08; 8,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 10,36</t>
+          <t>-7,37; 2,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 2,02</t>
+          <t>-4,3; 6,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,32</t>
+          <t>-3,99; 6,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 8,4</t>
+          <t>-4,61; 9,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 9,01</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 1,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 4,31</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 6,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 6,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 7,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>-13,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,05%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-7,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 36,79</t>
+          <t>-25,71; 37,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 49,67</t>
+          <t>-18,27; 49,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 92,74</t>
+          <t>0,36; 85,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 16,86</t>
+          <t>-21,69; 54,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 37,69</t>
+          <t>-23,99; 56,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 64,28</t>
+          <t>-36,39; 14,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 15,19</t>
+          <t>-20,79; 40,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 31,22</t>
+          <t>-19,13; 44,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 60,58</t>
+          <t>-21,38; 57,4</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,2; 54,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,55; 13,63</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 30,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 46,97</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; 39,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 44,7</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 14,71</t>
+          <t>-3,91; 16,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 16,27</t>
+          <t>-3,45; 16,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-9,43; 13,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 11,47</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 9,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-10,37; 11,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 9,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,75; 11,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 10,3</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 10,11</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 11,24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 10,94</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 8,61</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,67%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 98,1</t>
+          <t>-18,52; 103,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 107,05</t>
+          <t>-14,35; 110,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-37,78; 86,45</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-30,39; 48,94</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 42,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-29,46; 51,31</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-35,55; 41,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-36,01; 57,29</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-19,59; 51,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; 51,81</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; 57,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 52,54</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-28,06; 43,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,8</t>
+          <t>-3,04; 2,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,98</t>
+          <t>-1,47; 4,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 6,81</t>
+          <t>-0,75; 6,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -0,33</t>
+          <t>-3,75; 3,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,81</t>
+          <t>-3,89; 3,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,96</t>
+          <t>-6,29; -0,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,78</t>
+          <t>-4,67; 2,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,29</t>
+          <t>-3,67; 3,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,85</t>
+          <t>-3,92; 3,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 3,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 0,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 2,72</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 3,83</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 2,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 17,67</t>
+          <t>-15,82; 17,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 31,12</t>
+          <t>-7,41; 28,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 43,61</t>
+          <t>-4,06; 37,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -1,59</t>
+          <t>-16,28; 21,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 14,11</t>
+          <t>-17,15; 20,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 14,22</t>
+          <t>-27,04; -0,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 4,18</t>
+          <t>-19,63; 12,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 17,53</t>
+          <t>-15,43; 17,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 21,42</t>
+          <t>-16,76; 17,63</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 18,19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-17,54; 2,9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 14,45</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 20,87</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 12,38</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-13,29; 11,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
